--- a/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>99.39</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7808</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.02</t>
+          <t>5.97</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4155</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
     </row>
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>92.72</t>
+          <t>7.04</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>270001</t>
+          <t>005233</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发聚富混合</t>
+          <t>广发睿毅领先混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>74.92</t>
+          <t>7.37</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3486</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>99.49</t>
+          <t>4.42</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>008099</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>广发价值领先混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>91.75</t>
+          <t>3.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005233</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发睿毅领先混合</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>89.27</t>
+          <t>3.09</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002943</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发多因子灵活配置混合</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.51</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>009500</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>国寿安保高股息混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>96.60</t>
+          <t>2.34</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>008099</t>
+          <t>002943</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>广发价值领先混合</t>
+          <t>广发多因子灵活配置混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.20</t>
+          <t>1.24</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>6</v>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="12">
@@ -772,26 +882,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009500</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国寿安保高股息混合A</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>62.26</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="13">
@@ -810,15 +930,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>62.26</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>2.67</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>8</v>
       </c>
     </row>
@@ -833,7 +963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -854,15 +984,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -874,26 +1014,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004558</t>
+          <t>009887</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合A</t>
+          <t>广发稳健优选六个月持有期混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.40</t>
+          <t>86.06</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>4</v>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4975</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004559</t>
+          <t>010379</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安丰裕灵活配置混合C</t>
+          <t>广发均衡优选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>87.40</t>
+          <t>138.37</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>4</v>
+          <t>63.90</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.4757</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -930,25 +1090,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009887</t>
+          <t>008297</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发稳健优选六个月持有期混合A</t>
+          <t>广发价值优势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>63.93</t>
+          <t>48.55</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>7.55</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6702</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -968,15 +1138,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>34.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>63.93</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>7.55</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.5844</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>2</v>
       </c>
     </row>
@@ -986,26 +1166,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010379</t>
+          <t>270022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发均衡优选混合A</t>
+          <t>广发内需增长混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>63.90</t>
+          <t>18.67</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.0044</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010380</t>
+          <t>270001</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>广发均衡优选混合C</t>
+          <t>广发聚富混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>63.90</t>
+          <t>16.75</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.68</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>59.38</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8861</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>270001</t>
+          <t>001763</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>广发聚富混合</t>
+          <t>广发多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>59.38</t>
+          <t>9.18</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>57.89</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="9">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>270022</t>
+          <t>010380</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发内需增长混合A</t>
+          <t>广发均衡优选混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>79.92</t>
+          <t>8.24</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>63.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3856</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1098,26 +1318,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>011183</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>广发内需增长混合C</t>
+          <t>国泰中证煤炭ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>79.92</t>
+          <t>3.17</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.38</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
+          <t>96.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2339</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1126,25 +1356,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>161032</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>国泰中证煤炭ETF</t>
+          <t>富国中证煤炭指数</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>96.99</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.38</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1164,15 +1404,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>99.40</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>4.52</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1234</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1182,26 +1432,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001763</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>广发多策略灵活配置混合</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>57.89</t>
+          <t>1.03</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.37</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>7</v>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>004558</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>汇安丰裕灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>99.33</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>6</v>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="15">
@@ -1238,26 +1508,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>161032</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>富国中证煤炭指数</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.70</t>
+          <t>0.44</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>6.97</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>3</v>
+          <t>99.33</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -1266,26 +1546,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>011183</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>广发内需增长混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.87</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>6.94</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>3</v>
+          <t>79.92</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -1294,26 +1584,30 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>008297</t>
+          <t>004559</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>广发价值优势混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>92.85</t>
-        </is>
-      </c>
+          <t>汇安丰裕灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>2</v>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1592,7 +1593,6 @@
           <t>汇安丰裕灵活配置混合C</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>87.40</t>
@@ -1608,6 +1608,290 @@
       </c>
       <c r="H17" t="n">
         <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>9.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6304</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3548</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2709</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.78</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1897,4 +1898,514 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>35.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.4514</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>32.09</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0891</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.21</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7197</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2787</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.73</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1283</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0571</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011588</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源成份精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>72.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2408,4 +2409,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2417,7 +2418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2428,17 +2429,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2448,14 +2469,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.81</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2452</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -2464,14 +2507,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.45</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>545.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2480,14 +2545,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>16</v>
-      </c>
-      <c r="D4" t="n">
-        <v>21.57</v>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7508</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -2496,13 +2583,1595 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8478</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8085</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5639</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>16</v>
+      </c>
+      <c r="D5" t="n">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>12</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>2.88</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4070,7 +4071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4081,17 +4082,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4101,14 +4122,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>13.88</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.00</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3016</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -4117,14 +4160,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.81</v>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>402.81</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.0543</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -4133,14 +4198,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.45</v>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>21.64</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.3612</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -4149,14 +4236,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>16</v>
-      </c>
-      <c r="D5" t="n">
-        <v>21.57</v>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5364</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4165,13 +4274,1573 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>68.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4721</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.15</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3187</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.65</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007593</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1985</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>27.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1473</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007594</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长指数C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0898</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0883</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.06</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0688</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0323</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>96.08</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>97.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002768</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安安进灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25.67</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.63</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>47.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>42</v>
+      </c>
+      <c r="D2" t="n">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>6</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>12</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>2.88</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5723,7 +5724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5734,17 +5735,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5754,14 +5775,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.66</v>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5900</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5770,14 +5813,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>42</v>
-      </c>
-      <c r="D3" t="n">
-        <v>13.88</v>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4429</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -5786,14 +5851,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.81</v>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>26.31</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8524</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5802,14 +5889,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>6</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.45</v>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6889</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -5818,14 +5927,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>16</v>
-      </c>
-      <c r="D6" t="n">
-        <v>21.57</v>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5989</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -5834,13 +5965,373 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4754</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>013596</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0187</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.78</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>42</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>13.88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="n">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>2.88</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D2" t="n">
-        <v>7.83</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D3" t="n">
-        <v>8.66</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>42</v>
       </c>
       <c r="D4" t="n">
-        <v>13.88</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>5.81</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>1.45</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D7" t="n">
-        <v>21.57</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>16</v>
+      </c>
+      <c r="D8" t="n">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>12</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>2.88</v>
       </c>
     </row>
@@ -600,6 +617,326 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6218</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9707</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>79.43</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9570</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.23</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4781</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4545</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016814</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1066,1658 +1403,6 @@
       </c>
       <c r="H12" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515220</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证煤炭ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.3016</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>510500</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方中证500ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>402.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.0543</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161032</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3612</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>168204</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5364</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001278</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>68.54</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4721</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512500</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏中证500ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>60.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3187</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159606</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达中证500质量成长ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.65</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.03</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2075</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007593</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1985</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159922</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实中证500ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>36.91</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>97.34</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1956</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>510510</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发中证500ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>27.79</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.59</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1473</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159820</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天弘中证500ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>23.75</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>95.88</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1235</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>159930</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富中证能源ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>99.19</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1132</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007594</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0898</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>68.54</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0883</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>510580</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达中证500ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>16.77</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0855</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>510590</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>平安中证500ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12.98</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>98.06</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0688</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>560500</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>98.64</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0369</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>159968</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时中证500ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>95.76</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>512510</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证500ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>96.08</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0286</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>160616</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>159945</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发中证全指能源ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0229</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>159982</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏华中证500ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>501036</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>汇添富中证500指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>510530</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>工银瑞信中证500ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>99.00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>165511</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>信诚中证500指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>510560</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>国寿安保中证500ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>99.37</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010992</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>西藏东财中证500指数A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.69</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>501037</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>汇添富中证500指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>159932</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>大成中证500深市ETF</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>97.30</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>159935</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>景顺长城中证500ETF</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>98.01</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>010993</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>西藏东财中证500指数C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>515190</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中银证券中证500ETF</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>99.21</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>660011</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>农银中证500指数</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>002768</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华安安进灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>25.67</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>515530</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>泰康中证500ETF</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>006601</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>国融融泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>47.44</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>510550</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>方正富邦中证500ETF</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>97.63</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006938</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>515550</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>中融中证500ETF</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>91.02</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>013119</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>信诚中证500指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>006602</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>国融融泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>47.44</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -2792,26 +1477,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.16</t>
+          <t>32.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.58</t>
+          <t>99.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2452</t>
+          <t>2.3016</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2830,26 +1515,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>545.44</t>
+          <t>402.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.37</t>
+          <t>95.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.1090</t>
+          <t>2.0543</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2868,26 +1553,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.30</t>
+          <t>21.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.7508</t>
+          <t>1.3612</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -2896,36 +1581,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>590003</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮核心优势灵活配置混合</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.77</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.95</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9295</t>
+          <t>0.5364</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2934,36 +1619,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>前海开源清洁能源主题精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>68.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8478</t>
+          <t>0.4721</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2972,36 +1657,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>华夏中证500ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.69</t>
+          <t>60.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>98.15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8085</t>
+          <t>0.3187</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -3010,36 +1695,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>159606</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合A</t>
+          <t>易方达中证500质量成长ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.56</t>
+          <t>98.03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5639</t>
+          <t>0.2075</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -3048,36 +1733,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>007593</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏中证500ETF</t>
+          <t>鹏扬中证500质量成长指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>60.13</t>
+          <t>9.59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>97.82</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3488</t>
+          <t>0.1985</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -3101,21 +1786,21 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>97.56</t>
+          <t>97.34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2141</t>
+          <t>0.1956</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -3134,26 +1819,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>27.79</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>98.56</t>
+          <t>98.59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1778</t>
+          <t>0.1473</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3162,36 +1847,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>159820</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>天弘中证500ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>23.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>95.88</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1556</t>
+          <t>0.1235</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -3200,36 +1885,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>159820</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天弘中证500ETF</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>99.19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1306</t>
+          <t>0.1132</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -3238,36 +1923,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>510580</t>
+          <t>007594</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达中证500ETF</t>
+          <t>鹏扬中证500质量成长指数C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15.03</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0827</t>
+          <t>0.0898</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -3276,36 +1961,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>510590</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>平安中证500ETF</t>
+          <t>前海开源清洁能源主题精选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12.98</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>97.17</t>
+          <t>68.54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0740</t>
+          <t>0.0883</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -3314,36 +1999,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>510580</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合C</t>
+          <t>易方达中证500ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>16.77</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.56</t>
+          <t>95.49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0696</t>
+          <t>0.0855</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -3352,32 +2037,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>561350</t>
+          <t>510590</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国泰中证500ETF</t>
+          <t>平安中证500ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>12.98</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>97.45</t>
+          <t>98.06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0430</t>
+          <t>0.0688</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -3390,32 +2075,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>560500</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>98.63</t>
+          <t>98.64</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0397</t>
+          <t>0.0369</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -3443,21 +2128,21 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>95.76</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0348</t>
+          <t>0.0323</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -3476,26 +2161,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>95.77</t>
+          <t>96.08</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0313</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -3514,26 +2199,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.0278</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -3542,36 +2227,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>98.90</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0229</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -3580,36 +2265,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>501036</t>
+          <t>159982</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>汇添富中证500指数(LOF)A</t>
+          <t>鹏华中证500ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0222</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -3618,36 +2303,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>159982</t>
+          <t>501036</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鹏华中证500ETF</t>
+          <t>汇添富中证500指数(LOF)A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0219</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -3671,21 +2356,21 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>99.09</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0215</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -3694,36 +2379,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>510560</t>
+          <t>165511</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国寿安保中证500ETF</t>
+          <t>信诚中证500指数（LOF）A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>99.20</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -3732,36 +2417,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010992</t>
+          <t>510560</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>西藏东财中证500指数A</t>
+          <t>国寿安保中证500ETF</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>99.37</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0161</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -3770,36 +2455,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>165511</t>
+          <t>010992</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>信诚中证500指数（LOF）A</t>
+          <t>西藏东财中证500指数A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>94.93</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -3808,36 +2493,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>006938</t>
+          <t>009188</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鹏华中证500指数(LOF) C</t>
+          <t>鹏华股息精选混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>89.69</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -3856,26 +2541,26 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -3884,36 +2569,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010993</t>
+          <t>159932</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>西藏东财中证500指数C</t>
+          <t>大成中证500深市ETF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>97.30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -3922,36 +2607,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>159932</t>
+          <t>159935</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>大成中证500深市ETF</t>
+          <t>景顺长城中证500ETF</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>97.62</t>
+          <t>98.01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0039</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -3960,36 +2645,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>159935</t>
+          <t>010993</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>景顺长城中证500ETF</t>
+          <t>西藏东财中证500指数C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>94.93</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -4008,26 +2693,26 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>99.21</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -4036,36 +2721,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>515530</t>
+          <t>660011</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>泰康中证500ETF</t>
+          <t>农银中证500指数</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>95.41</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -4074,36 +2759,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>660011</t>
+          <t>002768</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>农银中证500指数</t>
+          <t>华安安进灵活配置混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>25.67</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -4112,36 +2797,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>159999</t>
+          <t>515530</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>永赢中证500ETF</t>
+          <t>泰康中证500ETF</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>97.43</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -4150,32 +2835,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>013119</t>
+          <t>006601</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>信诚中证500指数（LOF）C</t>
+          <t>国融融泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -4188,36 +2873,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>515550</t>
+          <t>510550</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中融中证500ETF</t>
+          <t>方正富邦中证500ETF</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>97.63</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -4226,36 +2911,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>515590</t>
+          <t>006938</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>前海开源中证500等权重ETF</t>
+          <t>鹏华中证500指数(LOF) C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>95.13</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -4264,27 +2949,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>510550</t>
+          <t>515550</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>方正富邦中证500ETF</t>
+          <t>中融中证500ETF</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>97.99</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -4293,7 +2978,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -4302,27 +2987,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>510570</t>
+          <t>013119</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>兴业中证500ETF</t>
+          <t>信诚中证500指数（LOF）C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>95.78</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -4331,7 +3016,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -4340,36 +3025,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>006602</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>国融融泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4378,6 +3063,1658 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2452</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>545.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7508</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8478</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8085</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5639</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4887,7 +5224,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5171,7 +5508,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5828,7 +6165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
+++ b/数据整理/stocks/A股/深证主板/000723-美锦能源.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="n">
-        <v>5.5</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>7.83</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="D4" t="n">
-        <v>8.66</v>
+        <v>7.83</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>42</v>
       </c>
       <c r="D5" t="n">
-        <v>13.88</v>
+        <v>8.66</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="D6" t="n">
-        <v>5.81</v>
+        <v>13.88</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>1.45</v>
+        <v>5.81</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D8" t="n">
-        <v>21.57</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>16</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21.57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>12</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>2.88</v>
       </c>
     </row>
@@ -616,7 +633,879 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7808</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4155</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.32</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3745</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3486</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.02</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2895</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2406</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2055</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.49</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002943</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0610</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>62.26</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>45.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.8534</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.36</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9685</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>013275</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7406</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4810</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>99.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1006</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>016814</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.94</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>85.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -936,7 +1825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1403,1658 +2292,6 @@
       </c>
       <c r="H12" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H43"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>515220</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国泰中证煤炭ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>32.88</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.00</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.3016</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>510500</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>南方中证500ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>402.81</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>95.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.0543</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161032</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>富国中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>21.64</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.3612</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>168204</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>中融中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>8.68</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>92.62</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>6.18</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5364</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>001278</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.07</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>68.54</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4721</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512500</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华夏中证500ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>60.13</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>98.15</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3187</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>159606</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>易方达中证500质量成长ETF</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>9.65</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>98.03</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.15</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2075</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>007593</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.59</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1985</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>159922</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实中证500ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>36.91</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>97.34</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1956</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>510510</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发中证500ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>27.79</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>98.59</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1473</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159820</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>天弘中证500ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>23.75</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>95.88</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1235</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>159930</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>汇添富中证能源ETF</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2.12</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>99.19</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>5.34</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1132</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>007594</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长指数C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.61</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0898</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002360</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>前海开源清洁能源主题精选混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.51</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>68.54</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>5.85</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0883</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>510580</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>易方达中证500ETF</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>16.77</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>95.49</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0855</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>510590</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>平安中证500ETF</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>12.98</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>98.06</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0688</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>560500</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.71</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>98.64</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>2.16</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0369</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>159968</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>博时中证500ETF</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>6.22</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>95.76</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0323</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>512510</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证500ETF</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>96.08</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0286</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>160616</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>5.45</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0278</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>159945</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>广发中证全指能源ETF</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>98.90</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0229</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>159982</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>鹏华中证500ETF</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>94.84</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>501036</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>汇添富中证500指数(LOF)A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>510530</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>工银瑞信中证500ETF</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3.64</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>99.00</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0193</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>165511</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>信诚中证500指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.78</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0139</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>510560</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>国寿安保中证500ETF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.42</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>99.37</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0131</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>010992</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>西藏东财中证500指数A</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0126</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>89.69</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0117</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>501037</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>汇添富中证500指数(LOF)C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>1.34</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.83</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0067</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>159932</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>大成中证500深市ETF</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>97.30</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>159935</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>景顺长城中证500ETF</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>98.01</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0039</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>010993</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>西藏东财中证500指数C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.72</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>94.93</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0037</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>515190</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>中银证券中证500ETF</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>99.21</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0033</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>660011</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>农银中证500指数</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0028</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>002768</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>华安安进灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>25.67</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0025</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>515530</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>泰康中证500ETF</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>006601</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>国融融泰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>47.44</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0015</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>510550</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>方正富邦中证500ETF</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.24</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>97.63</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006938</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>鹏华中证500指数(LOF) C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.25</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.90</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>515550</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>中融中证500ETF</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.23</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>91.02</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>0.51</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>013119</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>信诚中证500指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.12</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>93.31</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>006602</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>国融融泰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>47.44</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>3.73</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -3129,26 +2366,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.16</t>
+          <t>32.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>99.58</t>
+          <t>99.67</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>10.76</t>
+          <t>7.00</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3.2452</t>
+          <t>2.3016</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -3167,26 +2404,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>545.44</t>
+          <t>402.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.37</t>
+          <t>95.26</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>3.1090</t>
+          <t>2.0543</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -3205,26 +2442,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>28.30</t>
+          <t>21.64</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>93.99</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9.72</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2.7508</t>
+          <t>1.3612</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3233,36 +2470,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>590003</t>
+          <t>168204</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>中邮核心优势灵活配置混合</t>
+          <t>中融中证煤炭指数</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>10.77</t>
+          <t>8.68</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>76.95</t>
+          <t>92.62</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8.63</t>
+          <t>6.18</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.9295</t>
+          <t>0.5364</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3271,36 +2508,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>168204</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中融中证煤炭指数</t>
+          <t>前海开源清洁能源主题精选混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.84</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>93.17</t>
+          <t>68.54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>9.59</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.8478</t>
+          <t>0.4721</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -3309,36 +2546,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>512500</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数（LOF）</t>
+          <t>华夏中证500ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.69</t>
+          <t>60.13</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>98.15</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.8085</t>
+          <t>0.3187</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -3347,36 +2584,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>159606</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合A</t>
+          <t>易方达中证500质量成长ETF</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>12.73</t>
+          <t>9.65</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>81.56</t>
+          <t>98.03</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>2.15</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.5639</t>
+          <t>0.2075</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -3385,36 +2622,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>512500</t>
+          <t>007593</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>华夏中证500ETF</t>
+          <t>鹏扬中证500质量成长指数A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>60.13</t>
+          <t>9.59</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>97.82</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.3488</t>
+          <t>0.1985</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -3438,21 +2675,21 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>97.56</t>
+          <t>97.34</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.2141</t>
+          <t>0.1956</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -3471,26 +2708,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31.19</t>
+          <t>27.79</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>98.56</t>
+          <t>98.59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1778</t>
+          <t>0.1473</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -3499,36 +2736,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>159930</t>
+          <t>159820</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>汇添富中证能源ETF</t>
+          <t>天弘中证500ETF</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>23.75</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>95.88</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>8.02</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1556</t>
+          <t>0.1235</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
@@ -3537,36 +2774,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>159820</t>
+          <t>159930</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>天弘中证500ETF</t>
+          <t>汇添富中证能源ETF</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>23.75</t>
+          <t>2.12</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>92.23</t>
+          <t>99.19</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.1306</t>
+          <t>0.1132</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14">
@@ -3575,36 +2812,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>510580</t>
+          <t>007594</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>易方达中证500ETF</t>
+          <t>鹏扬中证500质量成长指数C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>15.03</t>
+          <t>4.34</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>94.24</t>
+          <t>94.61</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>2.07</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0827</t>
+          <t>0.0898</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -3613,36 +2850,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>510590</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>平安中证500ETF</t>
+          <t>前海开源清洁能源主题精选混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>12.98</t>
+          <t>1.51</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>97.17</t>
+          <t>68.54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>5.85</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0740</t>
+          <t>0.0883</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
@@ -3651,36 +2888,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>510580</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合C</t>
+          <t>易方达中证500ETF</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.57</t>
+          <t>16.77</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>81.56</t>
+          <t>95.49</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>4.43</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0696</t>
+          <t>0.0855</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17">
@@ -3689,32 +2926,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>561350</t>
+          <t>510590</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国泰中证500ETF</t>
+          <t>平安中证500ETF</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>7.28</t>
+          <t>12.98</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>97.45</t>
+          <t>98.06</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0430</t>
+          <t>0.0688</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -3727,32 +2964,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>159945</t>
+          <t>560500</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>广发中证全指能源ETF</t>
+          <t>鹏扬中证500质量成长交易型开放式指数证券投资基金</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>98.63</t>
+          <t>98.64</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>6.21</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0397</t>
+          <t>0.0369</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -3780,21 +3017,21 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>94.16</t>
+          <t>95.76</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0348</t>
+          <t>0.0323</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -3813,26 +3050,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5.59</t>
+          <t>5.50</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>95.77</t>
+          <t>96.08</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0313</t>
+          <t>0.0286</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -3851,26 +3088,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>5.40</t>
+          <t>5.45</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.0278</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -3879,36 +3116,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>001351</t>
+          <t>159945</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强A</t>
+          <t>广发中证全指能源ETF</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>4.54</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>98.90</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>4.32</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0259</t>
+          <t>0.0229</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
@@ -3917,36 +3154,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>501036</t>
+          <t>159982</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>汇添富中证500指数(LOF)A</t>
+          <t>鹏华中证500ETF</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.91</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>94.84</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0222</t>
+          <t>0.0199</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24">
@@ -3955,36 +3192,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>159982</t>
+          <t>501036</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>鹏华中证500ETF</t>
+          <t>汇添富中证500指数(LOF)A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3.91</t>
+          <t>3.92</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>94.45</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0219</t>
+          <t>0.0196</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -4008,21 +3245,21 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>99.09</t>
+          <t>99.00</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0215</t>
+          <t>0.0193</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -4031,36 +3268,36 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>510560</t>
+          <t>165511</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国寿安保中证500ETF</t>
+          <t>信诚中证500指数（LOF）A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>2.78</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>99.20</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0166</t>
+          <t>0.0139</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27">
@@ -4069,36 +3306,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>010992</t>
+          <t>510560</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>西藏东财中证500指数A</t>
+          <t>国寿安保中证500ETF</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2.88</t>
+          <t>2.42</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>99.37</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0161</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28">
@@ -4107,36 +3344,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>165511</t>
+          <t>010992</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>信诚中证500指数（LOF）A</t>
+          <t>西藏东财中证500指数A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2.78</t>
+          <t>2.48</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>94.93</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0153</t>
+          <t>0.0126</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -4145,36 +3382,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>006938</t>
+          <t>009188</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>鹏华中证500指数(LOF) C</t>
+          <t>鹏华股息精选混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1.63</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>94.09</t>
+          <t>89.69</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0085</t>
+          <t>0.0117</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="30">
@@ -4193,26 +3430,26 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1.37</t>
+          <t>1.34</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>91.84</t>
+          <t>90.83</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0075</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -4221,36 +3458,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>010993</t>
+          <t>159932</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>西藏东财中证500指数C</t>
+          <t>大成中证500深市ETF</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>95.00</t>
+          <t>97.30</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0044</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
@@ -4259,36 +3496,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>159932</t>
+          <t>159935</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>大成中证500深市ETF</t>
+          <t>景顺长城中证500ETF</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>97.62</t>
+          <t>98.01</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>1.11</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0047</t>
+          <t>0.0039</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33">
@@ -4297,36 +3534,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>159935</t>
+          <t>010993</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>景顺长城中证500ETF</t>
+          <t>西藏东财中证500指数C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.74</t>
+          <t>0.72</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>98.82</t>
+          <t>94.93</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0043</t>
+          <t>0.0037</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -4345,26 +3582,26 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.66</t>
+          <t>0.62</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>99.22</t>
+          <t>99.21</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.59</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0033</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -4373,36 +3610,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>515530</t>
+          <t>660011</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>泰康中证500ETF</t>
+          <t>农银中证500指数</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>0.64</t>
+          <t>0.55</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>95.41</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>0.0036</t>
+          <t>0.0028</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -4411,36 +3648,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>660011</t>
+          <t>002768</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>农银中证500指数</t>
+          <t>华安安进灵活配置混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.76</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>94.98</t>
+          <t>25.67</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>0.56</t>
+          <t>0.33</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>0.0035</t>
+          <t>0.0025</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -4449,36 +3686,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>159999</t>
+          <t>515530</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>永赢中证500ETF</t>
+          <t>泰康中证500ETF</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>97.43</t>
+          <t>94.55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>0.0033</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -4487,32 +3724,32 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>013119</t>
+          <t>006601</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>信诚中证500指数（LOF）C</t>
+          <t>国融融泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>92.76</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0015</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -4525,36 +3762,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>515550</t>
+          <t>510550</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中融中证500ETF</t>
+          <t>方正富邦中证500ETF</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>0.29</t>
+          <t>0.24</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>97.63</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>0.55</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>0.0016</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40">
@@ -4563,36 +3800,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>515590</t>
+          <t>006938</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>前海开源中证500等权重ETF</t>
+          <t>鹏华中证500指数(LOF) C</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>95.13</t>
+          <t>94.90</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0.32</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>0.0014</t>
+          <t>0.0013</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -4601,27 +3838,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>510550</t>
+          <t>515550</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>方正富邦中证500ETF</t>
+          <t>中融中证500ETF</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>0.21</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>97.99</t>
+          <t>91.02</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -4630,7 +3867,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -4639,27 +3876,27 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>510570</t>
+          <t>013119</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>兴业中证500ETF</t>
+          <t>信诚中证500指数（LOF）C</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.12</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>95.78</t>
+          <t>93.31</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -4668,7 +3905,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43">
@@ -4677,36 +3914,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>010355</t>
+          <t>006602</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>诺安中证500指数增强C</t>
+          <t>国融融泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0.04</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>94.26</t>
+          <t>47.44</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>3.73</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>0.0002</t>
+          <t>0.0004</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -4715,6 +3952,1658 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证煤炭ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.58</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.2452</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>545.44</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.37</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1090</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161032</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>28.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7508</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>590003</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中邮核心优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.9295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>168204</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中融中证煤炭指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>9.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8478</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8085</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5639</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>60.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.82</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3488</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>36.91</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2141</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159930</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富中证能源ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>23.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.98</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0740</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0696</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.45</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159945</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发中证全指能源ETF</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>95.77</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.45</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>工银瑞信中证500ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.20</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数(LOF) C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.84</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159932</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>大成中证500深市ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515190</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中银证券中证500ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>97.43</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>510570</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>兴业中证500ETF</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.78</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5224,7 +6113,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5508,7 +6397,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6163,516 +7052,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>270001</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发聚富混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.28</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>74.92</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.11</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.7808</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>515220</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国泰中证煤炭ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.97</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>96.60</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4155</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001763</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.32</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3745</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005233</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发睿毅领先混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3486</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>161032</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>富国中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>91.02</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.55</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.2895</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008099</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>6.09</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.2406</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>168204</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中融中证煤炭指数</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.09</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.72</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2055</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>159930</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>汇添富中证能源ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>99.49</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0894</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009500</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>62.26</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0625</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002943</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发多因子灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.51</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.92</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0610</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>159945</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>广发中证全指能源ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>99.39</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>3.25</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0146</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009501</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>62.26</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0003</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>